--- a/biology/Zoologie/Cryptoforis_tasmanica/Cryptoforis_tasmanica.xlsx
+++ b/biology/Zoologie/Cryptoforis_tasmanica/Cryptoforis_tasmanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoforis tasmanica est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoforis tasmanica est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1]. Elle se rencontre vers Hobart[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie. Elle se rencontre vers Hobart.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 27,0 mm[3]
-Le mâle décrit par Wilson, Raven, Schmidt, Hughes et Rix en 2020 mesure 16,77 mm et la femelle 28,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 27,0 mm
+Le mâle décrit par Wilson, Raven, Schmidt, Hughes et Rix en 2020 mesure 16,77 mm et la femelle 28,85 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aganippe tasmanica par Hickman en 1928. Elle est placée dans le genre Arbanitis par Main en 1957[4], dans le genre Euoplos par Raven et Wishart en 2006[5] puis dans le genre Cryptoforis par Wilson, Raven, Schmidt, Hughes et Rix en 2020[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aganippe tasmanica par Hickman en 1928. Elle est placée dans le genre Arbanitis par Main en 1957, dans le genre Euoplos par Raven et Wishart en 2006 puis dans le genre Cryptoforis par Wilson, Raven, Schmidt, Hughes et Rix en 2020.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Tasmanie.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hickman, 1928 : « Studies in Tasmanian spiders. Part II. » Papers and Proceedings of the Royal Society of Tasmania, vol. 1927, p. 158-175 (texte intégral).</t>
         </is>
